--- a/src/test/resources/TestData/CandidateDetails.xlsx
+++ b/src/test/resources/TestData/CandidateDetails.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Durga Prasad\eclipse-workspace\Attest360\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742FC29E-A498-43D8-B843-4E70D6507C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160A6D28-3A5E-4503-A66F-1E6E8A3052B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="0" windowWidth="16410" windowHeight="10920" activeTab="2" xr2:uid="{D17BC08B-B97C-47B4-BF7D-9DF0D9EAEEF5}"/>
+    <workbookView xWindow="1515" yWindow="0" windowWidth="16410" windowHeight="10920" activeTab="1" xr2:uid="{D17BC08B-B97C-47B4-BF7D-9DF0D9EAEEF5}"/>
   </bookViews>
   <sheets>
     <sheet name="CustomerName" sheetId="9" r:id="rId1"/>
@@ -25,7 +25,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -239,22 +239,26 @@
     <t>coimbatore</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>Sath2</t>
-  </si>
-  <si>
-    <t>CRT486030</t>
+    <t>CRT486137</t>
+  </si>
+  <si>
+    <t>Sathis</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>CRT486141</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -853,8 +857,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.28515625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="44.7109375"/>
+    <col min="2" max="16384" style="1" width="9.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -877,25 +881,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E6F6501-73FC-43B0-853A-E303960D273B}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="9"/>
-    <col min="5" max="5" width="11" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="9"/>
-    <col min="9" max="9" width="18.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="9" customWidth="1"/>
-    <col min="12" max="12" width="25" style="9" customWidth="1"/>
-    <col min="13" max="16384" width="9.28515625" style="9"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="24.28515625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="40.5703125"/>
+    <col min="3" max="3" customWidth="true" style="9" width="10.5703125"/>
+    <col min="4" max="4" style="9" width="9.28515625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="11.0"/>
+    <col min="6" max="6" customWidth="true" style="9" width="11.5703125"/>
+    <col min="7" max="7" customWidth="true" style="9" width="10.42578125"/>
+    <col min="8" max="8" customWidth="true" style="9" width="10.7109375"/>
+    <col min="9" max="9" customWidth="true" style="9" width="18.7109375"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="9" width="10.5703125"/>
+    <col min="11" max="11" customWidth="true" style="9" width="11.0"/>
+    <col min="12" max="12" customWidth="true" style="9" width="25.0"/>
+    <col min="13" max="16384" style="9" width="9.28515625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.25">
@@ -938,10 +942,10 @@
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>35</v>
@@ -971,7 +975,7 @@
         <v>26</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -987,13 +991,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4A2C80-3C37-426A-ADD0-D23F8E91C535}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.6015625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -1003,7 +1007,7 @@
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1022,8 +1026,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.140625"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="80.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1057,14 +1061,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.28515625"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="6" max="6" customWidth="true" width="11.5703125"/>
+    <col min="7" max="7" customWidth="true" width="32.28515625"/>
+    <col min="8" max="8" customWidth="true" width="30.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1135,13 +1139,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.28515625"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="6" max="7" customWidth="true" width="11.5703125"/>
+    <col min="8" max="8" customWidth="true" width="30.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -1216,14 +1220,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.85546875"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.28515625"/>
+    <col min="3" max="3" customWidth="true" width="12.42578125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.42578125"/>
+    <col min="5" max="6" customWidth="true" width="12.42578125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625"/>
+    <col min="8" max="8" customWidth="true" width="11.5703125"/>
+    <col min="9" max="9" customWidth="true" width="30.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -1305,7 +1309,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="33" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="33" style="6"/>
+    <col min="1" max="16384" style="6" width="33.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="4" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1351,7 +1355,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="31.140625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
